--- a/02_programme_task/xlsx_out/51.Colossians.xlsx
+++ b/02_programme_task/xlsx_out/51.Colossians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,751 +453,1171 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, an apostle of Christ Jesus by the will of God, and Timothy our brother, 2</t>
+          <t>The Letter of Paul to the Colossians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colossians 1:2</t>
+          <t>Colossians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>To the saints and faithful brother16's in Christ at Colossae: Grace to you and peace from God our Father. Thanksgiving and Prayer 3</t>
+          <t>Paul, a an apostle of Christ Jesus b by the will of God, and Timothy c our brother,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colossians 1:4</t>
+          <t>Colossians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>since we heard of your faith in Christ Jesus and of the love that you have for all the saints, 5</t>
+          <t>To the d saints and faithful brother s in Christ at Colossae: e Grace to you and peace from God our Father. Thanksgiving and Prayer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colossians 1:5</t>
+          <t>Colossians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>because of the hope laid up for you in heaven. Of this you have heard before in the word of the truth, the gospel, 6</t>
+          <t>f We always thank God, the Father of our Lord Jesus Christ, when we pray for you,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colossians 1:6</t>
+          <t>Colossians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>which has come to you, as indeed in the whole world it is bearing fruit and increasin16 g as it also does among you, since the day you heard it and understood the grace of God in truth, 7</t>
+          <t>since we heard of g your faith in Christ Jesus and of g the love that you have for all the saints,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colossians 1:7</t>
+          <t>Colossians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>just as you learned it from Epaphras our beloved fellow servant. He is a faithful minister of Christ on you r behalf 8</t>
+          <t>because of h the hope i laid up for you in heaven. Of this you have heard before in j the word of the truth, the gospel,</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colossians 1:8</t>
+          <t>Colossians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>and has made known to us your love in the Spirit. 9</t>
+          <t>which has come to you, as indeed k in the whole world it is l bearing fruit and increasin g as it also does among you, since the day you m heard it and understood n the grace of God in truth,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colossians 1:9</t>
+          <t>Colossians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>And so, from the day we heard, we have not ceased to pray for you, asking that you may be filled with the knowledge of his will in all spiritual wisdom and understanding,</t>
+          <t>just as you learned it from o Epaphras our beloved p fellow servant. He is p a faithful minister of Christ on you r behalf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colossians 1:10</t>
+          <t>Colossians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>so as to walk in a manner worthy of the Lord, fully pleasing to him: bearing fruit in every good work and increasing in the knowledge of God;</t>
+          <t>and has made known to us your q love in the Spirit.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colossians 1:12</t>
+          <t>Colossians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>giving thank16's to the Father, who has qualified yo16 u to share in the inheritance of the saints in light.</t>
+          <t>And so, r from the day we heard, s we have not ceased to pray for you, asking that t you may be filled with the knowledge of his will in all u spiritual wisdom and understanding,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colossians 1:13</t>
+          <t>Colossians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>He has delivered us from the domain of darkness and transferred us to the kingdom of his beloved Son,</t>
+          <t>so as v to walk in a manner worthy of the Lord, w fully pleasing to him: x bearing fruit in every good work and increasing in the knowledge of God;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colossians 1:16</t>
+          <t>Colossians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>For b16 y him all things were created, in heaven and on earth, visible and invisible, whether thrones or dominions or rulers or authoritie's all things were created through him and for him.</t>
+          <t>y being strengthened with all power, according to his glorious might, for z all endurance and patience a with joy;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colossians 1:17</t>
+          <t>Colossians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>And he is before all things, and in him all things hold together.</t>
+          <t>b giving thank s to the Father, who has qualified yo u to share in c the inheritance of the saints in light.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colossians 1:18</t>
+          <t>Colossians 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>And he is the head of the body, the church. He is the beginning, the firstborn from the dead, that in everything he might be preeminent.</t>
+          <t>He d has delivered us from e the domain of darkness and transferred us to f the kingdom of g his beloved Son,</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colossians 1:19</t>
+          <t>Colossians 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For in him all the fullness of God was pleased to dwell,</t>
+          <t>h in whom we have redemption, the forgiveness of sins. The Preeminence of Christ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colossians 1:20</t>
+          <t>Colossians 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>and through him to reconcile to himself all things, whether on earth or in heaven, making peace by the blood of his cross.</t>
+          <t>i He is the image of j the invisible God, k the firstborn of all creation.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colossians 1:22</t>
+          <t>Colossians 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>he has now reconciled in his body of flesh by his death, in order to pre173 sent you holy and blameless and above reproach before him,</t>
+          <t>For by him all things were created, l in heaven and on earth, visible and invisible, whether m thrones or n dominions or rulers or authoritie s all things were created o through him and for him.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colossians 1:24</t>
+          <t>Colossians 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Now I rejoice in my sufferings for your sake, and in my flesh I m filling up what is lacking in Christ's afflictions for the sake of his body, that is, the church,</t>
+          <t>And p he is before all things, and in him all things q hold together.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colossians 1:28</t>
+          <t>Colossians 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Him we proclaim, warning everyone and teaching everyone with all wisdom, that we may pre173 sent everyone mature in Christ.</t>
+          <t>And r he is the head of the body, the church. He is s the beginning, t the firstborn from the dead, that in everything he might be preeminent.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colossians 1:29</t>
+          <t>Colossians 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>For this I toil, struggling with all his energy that he powerfully works within me. 2</t>
+          <t>For u in him all the v fullness of God was pleased to dwell,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colossians 2:1</t>
+          <t>Colossians 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>For I want you to know how great a struggle I have for you and for those at Laodicea and for all who have not seen me face to face, 2</t>
+          <t>and w through him to reconcile to himself all things, whether on earth or in heaven, x making peace y by the blood of his cross.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colossians 2:2</t>
+          <t>Colossians 1:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>that their hearts may be encouraged, being knit together in love, to reach all the riches of full assurance of understanding and the knowledge of God's mystery, which is Christ, 3</t>
+          <t>z And you, who once were alienated and hostile in mind, a doing evil deeds,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colossians 2:4</t>
+          <t>Colossians 1:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I say this in order that no one may delude you with plausible arguments. 5</t>
+          <t>he has now reconciled b in his body of flesh by his death, c in order to pre?sent you holy and blameless and d above reproach before him,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colossians 2:5</t>
+          <t>Colossians 1:23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>For though I am absent in body, yet I am with you in spirit, rejoicing to see your good order and the firmness of your faith in Christ. Alive in Christ 6</t>
+          <t>e if indeed you continue in the faith, f stable and steadfast, not shifting from g the hope of the gospel that you heard, which has been proclaimed h in all creatio n under heaven, i and of which I, Paul, became a minister. Paul s Ministry to the Church</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colossians 2:8</t>
+          <t>Colossians 1:24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>See to it that no one takes you captive by philosophy and empty deceit, according to human tradition, according to the elemental spirit's of the world, and not according to Christ. 9</t>
+          <t>Now j I rejoice in my sufferings for your sake, and in my flesh k I am filling up l what is lacking in Christ s afflictions m for the sake of his body, that is, the church,</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colossians 2:9</t>
+          <t>Colossians 1:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>For in him the whole fullness of deity dwells bodily,</t>
+          <t>n of which I became a minister according to o the stewardship from God that was given to me for you, to make the word of God fully known,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colossians 2:10</t>
+          <t>Colossians 1:26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>and you have been filled in him, who is the head of all rule and authority.</t>
+          <t>p the mystery hidden for ages and generations but now revealed to his saints.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colossians 2:11</t>
+          <t>Colossians 1:27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>In him also you were circumcised with a circumcision made without hands, by putting off the body of the flesh, by the circumcision of Christ,</t>
+          <t>q To them God chose to make known how great among the Gentiles are r the riches of the glory of p this mystery, which is Christ in you, s the hope of glory.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colossians 2:14</t>
+          <t>Colossians 1:28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>by canceling the record of debt that stood against us with its legal demands. This he set aside, nailing it to the cross.</t>
+          <t>Him we proclaim, warning everyone and teaching everyone with all wisdom, that t we may pre?sent everyone u mature in Christ.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colossians 2:16</t>
+          <t>Colossians 1:29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Therefore let no one pass judgment on you in questions of food and drink, or with regard to a festival or a new moon or a Sabbath.</t>
+          <t>For this v I toil, w struggling x with all his energy that he powerfully works within me.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colossians 2:18</t>
+          <t>Colossians 2:1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Let no one disqualify you, insisting on asceticism and worship of angels, going on in detail about visions, puffed up without reason by his sensuous mind,</t>
+          <t>For I want you to know y how great a w struggle I have for you and for those at Laodicea and for all who have not seen me face to face,</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colossians 2:19</t>
+          <t>Colossians 2:2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>and not holding fast to the Head, from whom the whole body, nourished and knit together through its joints and ligaments, grows with a growth that is from God.</t>
+          <t>that z their hearts may be encouraged, being a knit together in love, to reach all the riches of full assurance of understanding and the knowledge of b God s mystery, which is Christ,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colossians 2:20</t>
+          <t>Colossians 2:3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>If with Christ you died to the elemental spirits of the world, why, as if you were still alive in the world, do you submit to regulation16 s16</t>
+          <t>c in whom are hidden all the treasures of wisdom and knowledge.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colossians 2:22</t>
+          <t>Colossians 2:4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>( referring to things that all perish as they are used16 ) according to human precepts and teachings</t>
+          <t>I say this in order d that no one may delude you with plausible arguments.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colossians 2:23</t>
+          <t>Colossians 2:5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>These have indeed an appearance of wisdom in promoting self- made religion and asceticism and severity to the body, but they are of no value in stopping the indulgence of the flesh. Put On the New Self 3</t>
+          <t>For e though I am absent in body, yet I am with you in spirit, rejoicing to see your f good order and g the firmness of your faith in Christ. Alive in Christ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colossians 3:3</t>
+          <t>Colossians 2:6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>For you have died, and your life is hidden with Christ in God. 4</t>
+          <t>h Therefore, as you received Christ Jesus the Lord, so walk in him,</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colossians 3:4</t>
+          <t>Colossians 2:7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>When Christ who is you16 r life appears, then you also will appear with him in glory. 5</t>
+          <t>i rooted and j built up in him and k established in the faith, just l as you were taught, abounding m in thanksgiving.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colossians 3:6</t>
+          <t>Colossians 2:8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>On account of these the wrath of God is coming. 7</t>
+          <t>See to it that no one takes you captive by n philosophy and o empty deceit, according to p human tradition, according to the q elemental spirit s of the world, and not according to Christ.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colossians 3:8</t>
+          <t>Colossians 2:9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>But now you must put them all away: anger, wrath, malice, slander, and obscene talk from your mouth. 9</t>
+          <t>For r in him the whole fullness of deity dwells s bodily,</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colossians 3:10</t>
+          <t>Colossians 2:10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>and have put on the new self, which is being renewed in knowledge after the image of its creator.</t>
+          <t>and t you have been filled in him, who is u the head of all rule and authority.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colossians 3:14</t>
+          <t>Colossians 2:11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>And above all these put on love, which binds everything together in perfect harmony.</t>
+          <t>In him also v you were circumcised with a circumcision made without hands, by w putting off the body of the flesh, by the circumcision of Christ,</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Colossians 3:15</t>
+          <t>Colossians 2:12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>And let the peace of Christ rule in your hearts, to which indeed you were called in one body. And be thankful.</t>
+          <t>x having been buried with him in baptism, in which y you were also raised with him through faith in z the powerful working of God, z who raised him from the dead.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colossians 3:</t>
+          <t>Colossians 2:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Let the word of Christ dwell in you richly, teaching and admonishing one another in all wisdom, singing psalms and hymns and spiritual songs, with thankfulness in your hearts to God.</t>
+          <t>a And you, who were dead in your trespasses and the uncircumcision of your flesh, God b made alive together with him, having forgiven us all our trespasses,</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colossians 3:17</t>
+          <t>Colossians 2:14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>And whatever you do, in word or deed, do everything in the name of the Lord Jesus, giving thanks to God the Father through him. Rules for Christian Households</t>
+          <t>by c canceling d the record of debt that stood against us with its legal demands. This he set aside, nailing it to the cross.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Colossians 3:19</t>
+          <t>Colossians 2:15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Husbands, love your wives, and do not be harsh with them.</t>
+          <t>w He disarmed the rulers and authoritie s and e put them to open shame, by f triumphing over them in him. Let No One Disqualify You</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colossians 3:20</t>
+          <t>Colossians 2:16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Children, obey your parents in everything, for this pleases the Lord.</t>
+          <t>Therefore let no one g pass judgment on you h in questions of food and drink, or with regard to i a festival or j a new moon or a Sabbath.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colossians 3:21</t>
+          <t>Colossians 2:17</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fathers, do not provoke your children, lest they become discouraged.</t>
+          <t>k These are a shadow of the things to come, but l the substance belongs to Christ.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colossians 3:22</t>
+          <t>Colossians 2:18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bondservants, obey in everything those who are your earthly masters, not by way of eye- service, as people- pleasers, but with sincerity of heart, fearing the Lord.</t>
+          <t>Let no one m disqualify you, n insisting on asceticism and worship of angels, o going on in detail about visions,</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Colossians 3:24</t>
+          <t>Colossians 2:19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>knowing that from the Lord you will receive the inheritance as your reward. You are serving the Lord Christ.</t>
+          <t>p puffed up without reason by q his sensuous mind,</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Colossians 3:25</t>
+          <t>Colossians 2:19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>For the wrongdoer will be paid back for the wrong he has done, and there is no partiality. 4</t>
+          <t>and r not s holding fast to the Head, from whom the whole body, nourished and knit together through its joints and ligaments, grows with a growth that is from God.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Colossians 4:1</t>
+          <t>Colossians 2:20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Masters, treat your bondservant16's justly and fairly, knowing that you also have a Master in heaven. Further Instructions 2</t>
+          <t>If with Christ t you died to the u elemental spirits of the world, v why, as if you were still alive in the world, do you submit to regulation s</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Colossians 4:3</t>
+          <t>Colossians 2:21</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>At the same time, pray also for us, that God may open to us a door for the word, to declare the mystery of Christ, on account of which I am in priso n16 4</t>
+          <t>w Do not handle, Do not taste, Do not touch</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Colossians 4:4</t>
+          <t>Colossians 2:22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>that I may make it clear, which is how I ought to speak. 5</t>
+          <t>according to y human precepts and teachings?</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Colossians 4:6</t>
+          <t>Colossians 2:23</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Let your speech always be gracious, seasoned with salt, so that you may know how you ought to answer each person. Final Greetings 7</t>
+          <t>These have indeed an appearance of wisdom in z promoting self-made religion and asceticism and severity to the body, but they are a of no value in stopping the indulgence of the flesh. Put On the New Self</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Colossians 4:7</t>
+          <t>Colossians 2:24</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tychicus will tell you all about my activities. He is a beloved brother and faithful minister and fellow servan t in the Lord. 8</t>
+          <t>b If then you have been raised with Christ, seek c the things that are above, where Christ is, d seated at the right hand of God.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Colossians 4:8</t>
+          <t>Colossians 2:25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>I have sent him to you for this very purpose, that you may know how we are and that he may encourage your hearts, 9</t>
+          <t>e Set your minds on things that are above, not on things that are on earth.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Colossians 4:9</t>
+          <t>Colossians 3:3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>and with him Onesimus, our faithful and beloved brother, who is one of you. They will tell you of everything that has taken place here.</t>
+          <t>For f you have died, and your life is hidden with Christ in God.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Colossians 4:11</t>
+          <t>Colossians 3:4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>and Jesus who is called Justus. These are the only men of the circumcision among my fellow workers for the kingdom of God, and they have been a comfort to me.</t>
+          <t>When Christ g who is you r life h appears, then you also will appear with him i in glory.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Colossians 4:13</t>
+          <t>Colossians 3:5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>For I bear him witness that he has worked hard for you and for those in Laodicea and in Hierapolis.</t>
+          <t>j Put to death therefore k what is earthly in you:</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Colossians 4:15</t>
+          <t>Colossians 3:6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Give my greetings to the brother16's at Laodicea, and to Nympha and the church in her house.</t>
+          <t>l sexual immorality, impurity, m passion, evil desire, and covetousness, n which is idolatry.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Colossians 4:16</t>
+          <t>Colossians 3:7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>And when this letter has been read among you, have it also read in the church of the Laodiceans; and see that you also read the letter from Laodicea.</t>
+          <t>o On account of these the wrath of God is coming.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Colossians 4:17</t>
+          <t>Colossians 3:8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>And say to Archippus, See that you fulfill the ministry that you have received in the Lord.</t>
+          <t>p In these you too once walked, when you were living in them.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Colossians 3:8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>But now q you must put them all away: r anger, wrath, malice, s slander, and obscene talk from your mouth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colossians 3:9</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>t Do not lie to one another, seeing that u you have put off v the old self with its practices</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Colossians 3:10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>and w have put on x the new self, y which is being renewed in knowledge z after the image of a its creator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Colossians 3:11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>b Here there is not Greek and Jew, circumcised and uncircumcised, barbarian, Scythian, slave, free; but Christ is c all, and in all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Colossians 3:12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>d Put on then, as e God s chosen ones, holy and beloved, f compassionate hearts, g kindness, h humility, meekness, and patience,</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Colossians 3:13</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>h bearing with one another and, i if one has a complaint against another, g forgiving each other; g as the Lord has forgiven you, so you also must forgive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Colossians 3:14</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>And above all these put on j love, which k binds everything together in l perfect harmony.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Colossians 3:15</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>And let m the peace of Christ rule in your hearts, to which indeed you were called n in one body. And o be thankful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Colossians 3:16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Let p the word of Christ dwell in you richly, teaching and admonishing one another in all wisdom, q singing psalms and hymns and spiritual songs, r with thankfulness in your hearts to God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Colossians 3:17</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>And s whatever you do, in word or deed, do everything in the name of the Lord Jesus, t giving thanks to God the Father through him. Rules for Christian Households</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Colossians 3:18</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>u Wives, submit to your husbands, as v is fitting in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Colossians 3:19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Husbands, love your wives, and w do not be harsh with them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Colossians 3:20</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Children, obey your parents x in everything, for this pleases the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Colossians 3:21</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fathers, do not provoke your children, lest they become discouraged.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Colossians 3:22</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bondservants, obey x in everything those who are your earthly masters, not by way of eye-service, as people-pleasers, but with sincerity of heart, fearing the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Colossians 3:23</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>y Whatever you do, work heartily, z as for the Lord and not for men,</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Colossians 3:24</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>knowing that from the Lord a you will receive the inheritance as your reward. b You are serving the Lord Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Colossians 3:25</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>For the wrongdoer will be paid back for the wrong he has done, and there is no partiality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Colossians 4:1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Masters, treat your bondservant s justly and fairly, knowing that you also have a Master in heaven. Further Instructions</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Colossians 4:2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>c Continue steadfastly in prayer, being watchful in it d with thanksgiving.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Colossians 4:3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>At the same time, pray also for us, that God may e open to us a door for the word, f to declare the mystery of Christ, g on account of which I am in priso n</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Colossians 4:4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>that I may make it clear, which is how I ought to speak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Colossians 4:5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>h Walk in wisdom toward i outsiders, making the best use of the time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Colossians 4:6</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Let your speech always j be gracious, k seasoned with salt, l so that you may know how you ought to answer each person. Final Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Colossians 4:7</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Tychicus will tell you m all about my activities. He is a beloved brother and faithful minister and fellow servan t in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Colossians 4:8</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>I have sent him to you for this very purpose, that you may know how we are and that he may encourage your hearts,</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Colossians 4:9</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>and with him n Onesimus, our faithful and o beloved brother, who is one of you. They will tell you of everything that has taken place here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Colossians 4:10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>p Aristarchus my fellow prisoner greets you, and Mark q the cousin of Barnabas,</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Colossians 4:11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>and Jesus who is called s Justus. t These are the only men of the circumcision among my fellow workers for the kingdom of God, and u they have been a comfort to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Colossians 4:12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>v Epaphras, who is one of you, a servant of Christ Jesus, greets you, always w struggling on your behalf in his prayers, that you may stand x mature and fully assured in all the will of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Colossians 4:13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>For I bear him witness that he has worked hard for you and for those in Laodicea and in Hierapolis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Colossians 4:14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>y Luke the beloved physician greets you, as does z Demas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Colossians 4:15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Give my greetings to the brother s at Laodicea, and to Nympha and a the church in her house.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Colossians 4:16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>And when b this letter has been read among you, have it also read in the church of the Laodiceans; and see that you also read the letter from Laodicea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Colossians 4:17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>And say to c Archippus, See that you fulfill d the ministry that you have received in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>Colossians 4:18</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>I, Paul, write this greeting with my own hand. Remember my chains. Grace be with you.</t>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>I, Paul, e write this greeting with my own hand. f Remember g my chains. h Grace be with you.</t>
         </is>
       </c>
     </row>
